--- a/Excel Project2.xlsx
+++ b/Excel Project2.xlsx
@@ -21,8 +21,11 @@
     <definedName name="AllStockValues">OFFSET('Loan Application'!$F$23,0,0,COUNTA('Loan Application'!$F:$F),1)</definedName>
     <definedName name="CurrentPrice">OFFSET('Loan Application'!$D$23,0,0,COUNTA('Loan Application'!$D:$D),1)</definedName>
     <definedName name="DebtNumbers">OFFSET('Loan Application'!$F$7,0,0,COUNTA('Loan Application'!$F:$F),1)</definedName>
+    <definedName name="Industry">OFFSET('Loan Application'!$E$23,0,0,COUNTA('Loan Application'!$E:$E),1)</definedName>
+    <definedName name="LoanRequestAmount">'Loan Application'!$D$3</definedName>
     <definedName name="MSN_MoneyCentral_Investor_Stock_Quotes" localSheetId="1">'Stock Info'!$A$1:$P$19</definedName>
     <definedName name="NumberOfShares">OFFSET('Loan Application'!$C$23,0,0,COUNTA('Loan Application'!$C:$C),1)</definedName>
+    <definedName name="TechStocks">SUMIF(Industry,"Technology",AllStockValues)</definedName>
     <definedName name="TickerSymbols">OFFSET('Loan Application'!$B$23,0,0,COUNTA('Loan Application'!$B:$B),1)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>Name</t>
   </si>
@@ -471,10 +474,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -865,7 +869,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -981,66 +985,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1048,6 +992,65 @@
     <xf numFmtId="44" fontId="1" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -1056,13 +1059,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1100,17 +1107,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1206,10 +1202,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F6:I16" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F6:I16" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="4">
-    <tableColumn id="1" name="Debt Number" dataDxfId="7"/>
-    <tableColumn id="2" name="Company Name" dataDxfId="6"/>
+    <tableColumn id="1" name="Debt Number" dataDxfId="1"/>
+    <tableColumn id="2" name="Company Name" dataDxfId="0"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="4" name="Amount"/>
   </tableColumns>
@@ -1483,8 +1479,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1518,7 +1514,9 @@
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
-      <c r="D3" s="49"/>
+      <c r="D3" s="49">
+        <v>200000</v>
+      </c>
       <c r="E3" s="50"/>
     </row>
     <row r="5" spans="1:9" ht="18.75">
@@ -1529,18 +1527,18 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="12"/>
       <c r="D6" s="5"/>
       <c r="F6" s="20" t="s">
@@ -1557,10 +1555,10 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="13"/>
       <c r="D7" s="1"/>
       <c r="F7" s="9">
@@ -1570,10 +1568,10 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="52"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="14">
         <v>1234567890</v>
       </c>
@@ -1603,19 +1601,19 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="52"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="15"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="16">
         <v>862888234</v>
       </c>
@@ -1623,10 +1621,10 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="17" t="s">
         <v>15</v>
       </c>
@@ -1634,28 +1632,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="18"/>
       <c r="F14" s="10"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="52"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="19"/>
       <c r="F15" s="9"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="18"/>
       <c r="F16" s="10"/>
       <c r="G16" s="11"/>
@@ -1702,7 +1700,7 @@
       <c r="A23" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="51" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="47">
@@ -1710,39 +1708,43 @@
       </c>
       <c r="D23" s="46">
         <f>IF(ISBLANK($A23),"",'Stock Info'!$D4)</f>
-        <v>159.37</v>
-      </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="76">
+        <v>164.36</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="56">
         <f>IF(OR(ISBLANK($D23),(ISBLANK($C23))),"",C23*D23)</f>
-        <v>31874</v>
+        <v>32872</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="74">
-        <v>200</v>
-      </c>
-      <c r="D24" s="75">
+      <c r="C24" s="54">
+        <v>100</v>
+      </c>
+      <c r="D24" s="55">
         <f>IF(ISBLANK($A24),"",'Stock Info'!$D5)</f>
-        <v>707.88</v>
-      </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="77">
+        <v>714.41</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="57">
         <f>IF(OR(ISBLANK($D24),(ISBLANK($C24))),"",C24*D24)</f>
-        <v>141576</v>
+        <v>71441</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="51" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="47">
@@ -1750,604 +1752,605 @@
       </c>
       <c r="D25" s="46">
         <f>IF(ISBLANK($A25),"",'Stock Info'!$D6)</f>
-        <v>117.58</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="76">
+        <v>118.57</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="56">
         <f t="shared" ref="F25:F76" si="0">IF(OR(ISBLANK($D25),(ISBLANK($C25))),"",C25*D25)</f>
-        <v>23516</v>
+        <v>23714</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="54">
         <v>200</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="55">
         <f>IF(ISBLANK($A26),"",'Stock Info'!$D7)</f>
-        <v>93.45</v>
-      </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="77">
-        <f t="shared" si="0"/>
-        <v>18690</v>
+        <v>93.15</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="57">
+        <f t="shared" si="0"/>
+        <v>18630</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="48"/>
-      <c r="B27" s="71"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="47"/>
       <c r="D27" s="46" t="str">
         <f>IF(ISBLANK($A27),"",'Stock Info'!$D8)</f>
         <v/>
       </c>
       <c r="E27" s="47"/>
-      <c r="F27" s="76" t="str">
+      <c r="F27" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75" t="str">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55" t="str">
         <f>IF(ISBLANK($A28),"",'Stock Info'!$D9)</f>
         <v/>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="77" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="48"/>
-      <c r="B29" s="71"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46" t="str">
         <f>IF(ISBLANK($A29),"",'Stock Info'!$D10)</f>
         <v/>
       </c>
       <c r="E29" s="47"/>
-      <c r="F29" s="76" t="str">
+      <c r="F29" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="75" t="str">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55" t="str">
         <f>IF(ISBLANK($A30),"",'Stock Info'!$D11)</f>
         <v/>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="77" t="str">
+      <c r="E30" s="54"/>
+      <c r="F30" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="48"/>
-      <c r="B31" s="71"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="47"/>
       <c r="D31" s="46" t="str">
         <f>IF(ISBLANK($A31),"",'Stock Info'!$D12)</f>
         <v/>
       </c>
       <c r="E31" s="47"/>
-      <c r="F31" s="76" t="str">
+      <c r="F31" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="75" t="str">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55" t="str">
         <f>IF(ISBLANK($A32),"",'Stock Info'!$D13)</f>
         <v/>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="77" t="str">
+      <c r="E32" s="54"/>
+      <c r="F32" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="48"/>
-      <c r="B33" s="71"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="47"/>
       <c r="D33" s="46" t="str">
         <f>IF(ISBLANK($A33),"",'Stock Info'!$D14)</f>
         <v/>
       </c>
       <c r="E33" s="47"/>
-      <c r="F33" s="76" t="str">
+      <c r="F33" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="72"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="75" t="str">
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55" t="str">
         <f>IF(ISBLANK($A34),"",'Stock Info'!$D15)</f>
         <v/>
       </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="77" t="str">
+      <c r="E34" s="54"/>
+      <c r="F34" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="48"/>
-      <c r="B35" s="71"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="47"/>
       <c r="D35" s="46" t="str">
         <f>IF(ISBLANK($A35),"",'Stock Info'!$D16)</f>
         <v/>
       </c>
       <c r="E35" s="47"/>
-      <c r="F35" s="76" t="str">
+      <c r="F35" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="72"/>
-      <c r="B36" s="73"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="75" t="str">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55" t="str">
         <f>IF(ISBLANK($A36),"",'Stock Info'!$D17)</f>
         <v/>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="77" t="str">
+      <c r="E36" s="54"/>
+      <c r="F36" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="48"/>
-      <c r="B37" s="71"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="47"/>
       <c r="D37" s="46" t="str">
         <f>IF(ISBLANK($A37),"",'Stock Info'!$D18)</f>
         <v/>
       </c>
       <c r="E37" s="47"/>
-      <c r="F37" s="76" t="str">
+      <c r="F37" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75" t="str">
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55" t="str">
         <f>IF(ISBLANK($A38),"",'Stock Info'!$D19)</f>
         <v/>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="77" t="str">
+      <c r="E38" s="54"/>
+      <c r="F38" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="48"/>
-      <c r="B39" s="71"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="47"/>
       <c r="D39" s="46" t="str">
         <f>IF(ISBLANK($A39),"",'Stock Info'!$D20)</f>
         <v/>
       </c>
       <c r="E39" s="47"/>
-      <c r="F39" s="76" t="str">
+      <c r="F39" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="72"/>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="75" t="str">
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55" t="str">
         <f>IF(ISBLANK($A40),"",'Stock Info'!$D21)</f>
         <v/>
       </c>
-      <c r="E40" s="74"/>
-      <c r="F40" s="77" t="str">
+      <c r="E40" s="54"/>
+      <c r="F40" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="48"/>
-      <c r="B41" s="71"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="47"/>
       <c r="D41" s="46" t="str">
         <f>IF(ISBLANK($A41),"",'Stock Info'!$D22)</f>
         <v/>
       </c>
       <c r="E41" s="47"/>
-      <c r="F41" s="76" t="str">
+      <c r="F41" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="72"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75" t="str">
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55" t="str">
         <f>IF(ISBLANK($A42),"",'Stock Info'!$D23)</f>
         <v/>
       </c>
-      <c r="E42" s="74"/>
-      <c r="F42" s="77" t="str">
+      <c r="E42" s="54"/>
+      <c r="F42" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="48"/>
-      <c r="B43" s="71"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="47"/>
       <c r="D43" s="46" t="str">
         <f>IF(ISBLANK($A43),"",'Stock Info'!$D24)</f>
         <v/>
       </c>
       <c r="E43" s="47"/>
-      <c r="F43" s="76" t="str">
+      <c r="F43" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="72"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="75" t="str">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55" t="str">
         <f>IF(ISBLANK($A44),"",'Stock Info'!$D25)</f>
         <v/>
       </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="77" t="str">
+      <c r="E44" s="54"/>
+      <c r="F44" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="48"/>
-      <c r="B45" s="71"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="47"/>
       <c r="D45" s="46" t="str">
         <f>IF(ISBLANK($A45),"",'Stock Info'!$D26)</f>
         <v/>
       </c>
       <c r="E45" s="47"/>
-      <c r="F45" s="76" t="str">
+      <c r="F45" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="72"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="75" t="str">
+      <c r="A46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55" t="str">
         <f>IF(ISBLANK($A46),"",'Stock Info'!$D27)</f>
         <v/>
       </c>
-      <c r="E46" s="74"/>
-      <c r="F46" s="77" t="str">
+      <c r="E46" s="54"/>
+      <c r="F46" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="48"/>
-      <c r="B47" s="71"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="47"/>
       <c r="D47" s="46" t="str">
         <f>IF(ISBLANK($A47),"",'Stock Info'!$D28)</f>
         <v/>
       </c>
       <c r="E47" s="47"/>
-      <c r="F47" s="76" t="str">
+      <c r="F47" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="72"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="75" t="str">
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55" t="str">
         <f>IF(ISBLANK($A48),"",'Stock Info'!$D29)</f>
         <v/>
       </c>
-      <c r="E48" s="74"/>
-      <c r="F48" s="77" t="str">
+      <c r="E48" s="54"/>
+      <c r="F48" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="48"/>
-      <c r="B49" s="71"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="47"/>
       <c r="D49" s="46" t="str">
         <f>IF(ISBLANK($A49),"",'Stock Info'!$D30)</f>
         <v/>
       </c>
       <c r="E49" s="47"/>
-      <c r="F49" s="76" t="str">
+      <c r="F49" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="72"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75" t="str">
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55" t="str">
         <f>IF(ISBLANK($A50),"",'Stock Info'!$D31)</f>
         <v/>
       </c>
-      <c r="E50" s="74"/>
-      <c r="F50" s="77" t="str">
+      <c r="E50" s="54"/>
+      <c r="F50" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="48"/>
-      <c r="B51" s="71"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="47"/>
       <c r="D51" s="46" t="str">
         <f>IF(ISBLANK($A51),"",'Stock Info'!$D32)</f>
         <v/>
       </c>
       <c r="E51" s="47"/>
-      <c r="F51" s="76" t="str">
+      <c r="F51" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="72"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75" t="str">
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="55" t="str">
         <f>IF(ISBLANK($A52),"",'Stock Info'!$D33)</f>
         <v/>
       </c>
-      <c r="E52" s="74"/>
-      <c r="F52" s="77" t="str">
+      <c r="E52" s="54"/>
+      <c r="F52" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="48"/>
-      <c r="B53" s="71"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="47"/>
       <c r="D53" s="46" t="str">
         <f>IF(ISBLANK($A53),"",'Stock Info'!$D34)</f>
         <v/>
       </c>
       <c r="E53" s="47"/>
-      <c r="F53" s="76" t="str">
+      <c r="F53" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="72"/>
-      <c r="B54" s="73"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75" t="str">
+      <c r="A54" s="52"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55" t="str">
         <f>IF(ISBLANK($A54),"",'Stock Info'!$D35)</f>
         <v/>
       </c>
-      <c r="E54" s="74"/>
-      <c r="F54" s="77" t="str">
+      <c r="E54" s="54"/>
+      <c r="F54" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="48"/>
-      <c r="B55" s="71"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="47"/>
       <c r="D55" s="46" t="str">
         <f>IF(ISBLANK($A55),"",'Stock Info'!$D36)</f>
         <v/>
       </c>
       <c r="E55" s="47"/>
-      <c r="F55" s="76" t="str">
+      <c r="F55" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="72"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="75" t="str">
+      <c r="A56" s="52"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="55" t="str">
         <f>IF(ISBLANK($A56),"",'Stock Info'!$D37)</f>
         <v/>
       </c>
-      <c r="E56" s="74"/>
-      <c r="F56" s="77" t="str">
+      <c r="E56" s="54"/>
+      <c r="F56" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="48"/>
-      <c r="B57" s="71"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="47"/>
       <c r="D57" s="46" t="str">
         <f>IF(ISBLANK($A57),"",'Stock Info'!$D38)</f>
         <v/>
       </c>
       <c r="E57" s="47"/>
-      <c r="F57" s="76" t="str">
+      <c r="F57" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="72"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="75" t="str">
+      <c r="A58" s="52"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="55" t="str">
         <f>IF(ISBLANK($A58),"",'Stock Info'!$D39)</f>
         <v/>
       </c>
-      <c r="E58" s="74"/>
-      <c r="F58" s="77" t="str">
+      <c r="E58" s="54"/>
+      <c r="F58" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="48"/>
-      <c r="B59" s="71"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="47"/>
       <c r="D59" s="46" t="str">
         <f>IF(ISBLANK($A59),"",'Stock Info'!$D40)</f>
         <v/>
       </c>
       <c r="E59" s="47"/>
-      <c r="F59" s="76" t="str">
+      <c r="F59" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="72"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="75" t="str">
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="55" t="str">
         <f>IF(ISBLANK($A60),"",'Stock Info'!$D41)</f>
         <v/>
       </c>
-      <c r="E60" s="74"/>
-      <c r="F60" s="77" t="str">
+      <c r="E60" s="54"/>
+      <c r="F60" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="48"/>
-      <c r="B61" s="71"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="47"/>
       <c r="D61" s="46" t="str">
         <f>IF(ISBLANK($A61),"",'Stock Info'!$D42)</f>
         <v/>
       </c>
       <c r="E61" s="47"/>
-      <c r="F61" s="76" t="str">
+      <c r="F61" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="72"/>
-      <c r="B62" s="73"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="75" t="str">
+      <c r="A62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="55" t="str">
         <f>IF(ISBLANK($A62),"",'Stock Info'!$D43)</f>
         <v/>
       </c>
-      <c r="E62" s="74"/>
-      <c r="F62" s="77" t="str">
+      <c r="E62" s="54"/>
+      <c r="F62" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="48"/>
-      <c r="B63" s="71"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="47"/>
       <c r="D63" s="46" t="str">
         <f>IF(ISBLANK($A63),"",'Stock Info'!$D44)</f>
         <v/>
       </c>
       <c r="E63" s="47"/>
-      <c r="F63" s="76" t="str">
+      <c r="F63" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="72"/>
-      <c r="B64" s="73"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="75" t="str">
+      <c r="A64" s="52"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="55" t="str">
         <f>IF(ISBLANK($A64),"",'Stock Info'!$D45)</f>
         <v/>
       </c>
-      <c r="E64" s="74"/>
-      <c r="F64" s="77" t="str">
+      <c r="E64" s="54"/>
+      <c r="F64" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="48"/>
-      <c r="B65" s="71"/>
+      <c r="B65" s="51"/>
       <c r="C65" s="47"/>
       <c r="D65" s="46" t="str">
         <f>IF(ISBLANK($A65),"",'Stock Info'!$D46)</f>
         <v/>
       </c>
       <c r="E65" s="47"/>
-      <c r="F65" s="76" t="str">
+      <c r="F65" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="72"/>
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75" t="str">
+      <c r="A66" s="52"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="55" t="str">
         <f>IF(ISBLANK($A66),"",'Stock Info'!$D47)</f>
         <v/>
       </c>
-      <c r="E66" s="74"/>
-      <c r="F66" s="77" t="str">
+      <c r="E66" s="54"/>
+      <c r="F66" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="48"/>
-      <c r="B67" s="71"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="47"/>
       <c r="D67" s="46" t="str">
         <f>IF(ISBLANK($A67),"",'Stock Info'!$D48)</f>
         <v/>
       </c>
       <c r="E67" s="47"/>
-      <c r="F67" s="76" t="str">
+      <c r="F67" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2356,12 +2359,12 @@
       <c r="A68" s="47"/>
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
-      <c r="D68" s="75" t="str">
+      <c r="D68" s="55" t="str">
         <f>IF(ISBLANK($A68),"",'Stock Info'!$D49)</f>
         <v/>
       </c>
       <c r="E68" s="47"/>
-      <c r="F68" s="77" t="str">
+      <c r="F68" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2375,7 +2378,7 @@
         <v/>
       </c>
       <c r="E69" s="47"/>
-      <c r="F69" s="76" t="str">
+      <c r="F69" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2384,12 +2387,12 @@
       <c r="A70" s="47"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
-      <c r="D70" s="75" t="str">
+      <c r="D70" s="55" t="str">
         <f>IF(ISBLANK($A70),"",'Stock Info'!$D51)</f>
         <v/>
       </c>
       <c r="E70" s="47"/>
-      <c r="F70" s="77" t="str">
+      <c r="F70" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2403,7 +2406,7 @@
         <v/>
       </c>
       <c r="E71" s="47"/>
-      <c r="F71" s="76" t="str">
+      <c r="F71" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2412,12 +2415,12 @@
       <c r="A72" s="47"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
-      <c r="D72" s="75" t="str">
+      <c r="D72" s="55" t="str">
         <f>IF(ISBLANK($A72),"",'Stock Info'!$D53)</f>
         <v/>
       </c>
       <c r="E72" s="47"/>
-      <c r="F72" s="77" t="str">
+      <c r="F72" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2431,17 +2434,17 @@
         <v/>
       </c>
       <c r="E73" s="47"/>
-      <c r="F73" s="76" t="str">
+      <c r="F73" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="D74" s="75" t="str">
+      <c r="D74" s="55" t="str">
         <f>IF(ISBLANK($A74),"",'Stock Info'!$D55)</f>
         <v/>
       </c>
-      <c r="F74" s="77" t="str">
+      <c r="F74" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2451,17 +2454,17 @@
         <f>IF(ISBLANK($A75),"",'Stock Info'!$D56)</f>
         <v/>
       </c>
-      <c r="F75" s="76" t="str">
+      <c r="F75" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="D76" s="75" t="str">
+      <c r="D76" s="55" t="str">
         <f>IF(ISBLANK($A76),"",'Stock Info'!$D57)</f>
         <v/>
       </c>
-      <c r="F76" s="77" t="str">
+      <c r="F76" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2471,24 +2474,24 @@
         <f>IF(ISBLANK($A77),"",'Stock Info'!$D58)</f>
         <v/>
       </c>
-      <c r="F77" s="76" t="str">
+      <c r="F77" s="56" t="str">
         <f>IF(OR(ISBLANK($D77),(ISBLANK($C77))),"",C77*D77)</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="D78" s="75" t="str">
+      <c r="D78" s="55" t="str">
         <f>IF(ISBLANK($A78),"",'Stock Info'!$D59)</f>
         <v/>
       </c>
-      <c r="F78" s="77" t="str">
+      <c r="F78" s="57" t="str">
         <f>IF(OR(ISBLANK($D78),(ISBLANK($C78))),"",C78*D78)</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="F79" s="76" t="str">
-        <f t="shared" ref="F27:F79" si="1">IF(ISBLANK($C79)*OR(ISBLANK($D79)),"",C79*D79)</f>
+      <c r="F79" s="56" t="str">
+        <f t="shared" ref="F79" si="1">IF(ISBLANK($C79)*OR(ISBLANK($D79)),"",C79*D79)</f>
         <v/>
       </c>
     </row>
@@ -2499,40 +2502,40 @@
     </dataRefs>
   </dataConsolidate>
   <mergeCells count="11">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="A73:C73 E73">
-    <cfRule type="expression" dxfId="5" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>ISBLANK($A122)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:E26 A27:C72 E27:E72 D27:D78">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>ISBLANK($A23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D78">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>ISBLANK($A23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:I16">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>ISBLANK($F11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F79">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>ISBLANK($A23)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2623,7 +2626,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2649,44 +2652,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -2743,25 +2746,25 @@
         <v>83</v>
       </c>
       <c r="D4" s="42">
+        <v>164.36</v>
+      </c>
+      <c r="E4" s="43">
         <v>159.37</v>
       </c>
-      <c r="E4" s="43">
-        <v>158.25</v>
-      </c>
       <c r="F4" s="43">
-        <v>159.85</v>
+        <v>164.51</v>
       </c>
       <c r="G4" s="43">
-        <v>157.53</v>
+        <v>158.5</v>
       </c>
       <c r="H4" s="44">
-        <v>31853</v>
+        <v>61599</v>
       </c>
       <c r="I4" s="43">
-        <v>1.1200000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="J4" s="45">
-        <v>0.71</v>
+        <v>3.13</v>
       </c>
       <c r="K4" s="43">
         <v>220.93</v>
@@ -2793,25 +2796,25 @@
         <v>83</v>
       </c>
       <c r="D5" s="42">
+        <v>714.41</v>
+      </c>
+      <c r="E5" s="43">
         <v>707.88</v>
       </c>
-      <c r="E5" s="43">
-        <v>705.06</v>
-      </c>
       <c r="F5" s="43">
-        <v>712.11</v>
+        <v>715.41</v>
       </c>
       <c r="G5" s="43">
-        <v>703.78</v>
+        <v>706.36</v>
       </c>
       <c r="H5" s="44">
-        <v>2913898</v>
+        <v>1673095</v>
       </c>
       <c r="I5" s="43">
-        <v>2.82</v>
+        <v>6.53</v>
       </c>
       <c r="J5" s="45">
-        <v>0.4</v>
+        <v>0.92</v>
       </c>
       <c r="K5" s="43">
         <v>810.35</v>
@@ -2843,25 +2846,25 @@
         <v>83</v>
       </c>
       <c r="D6" s="42">
+        <v>118.57</v>
+      </c>
+      <c r="E6" s="43">
         <v>117.58</v>
       </c>
-      <c r="E6" s="43">
-        <v>116.73</v>
-      </c>
       <c r="F6" s="43">
-        <v>117.84</v>
+        <v>118.73</v>
       </c>
       <c r="G6" s="43">
-        <v>115.84</v>
+        <v>116.57</v>
       </c>
       <c r="H6" s="44">
-        <v>37140594</v>
+        <v>27786934</v>
       </c>
       <c r="I6" s="43">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="J6" s="45">
-        <v>0.73</v>
+        <v>0.84</v>
       </c>
       <c r="K6" s="43">
         <v>120.79</v>
@@ -2893,25 +2896,25 @@
         <v>83</v>
       </c>
       <c r="D7" s="42">
+        <v>93.15</v>
+      </c>
+      <c r="E7" s="43">
         <v>93.45</v>
       </c>
-      <c r="E7" s="43">
-        <v>96.15</v>
-      </c>
       <c r="F7" s="43">
-        <v>94.16</v>
+        <v>93.97</v>
       </c>
       <c r="G7" s="43">
-        <v>93.37</v>
+        <v>92.97</v>
       </c>
       <c r="H7" s="44">
         <v>0</v>
       </c>
       <c r="I7" s="43">
-        <v>-2.7</v>
+        <v>-0.3</v>
       </c>
       <c r="J7" s="45">
-        <v>-2.81</v>
+        <v>-0.32</v>
       </c>
       <c r="K7" s="43">
         <v>132.91999999999999</v>
@@ -2951,17 +2954,17 @@
       <c r="P8" s="34"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -2973,17 +2976,17 @@
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
@@ -3013,141 +3016,141 @@
       <c r="P11" s="34"/>
     </row>
     <row r="12" spans="1:16" ht="30" customHeight="1">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
     </row>
     <row r="14" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
     </row>
     <row r="16" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="1:16" ht="49.5" customHeight="1">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="77" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3195,27 +3198,38 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3" s="78">
+        <f>LoanRequestAmount</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>92</v>
+      </c>
+      <c r="C4" t="str">
+        <f ca="1">IF(SUM(AllStockValues) &gt;= (0.7*LoanRequestAmount),IF(TechStocks &lt; (0.7*SUM(AllStockValues)),IF(MAX(AllStockValues) &lt; (0.5*SUM(AllStockValues)), "Low Risk","High Risk"),"High Risk"),"High Risk")</f>
+        <v>Low Risk</v>
       </c>
     </row>
   </sheetData>
@@ -3228,7 +3242,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
